--- a/R/Xin_Gao_CGM_SpeakerInfoRequest.xlsx
+++ b/R/Xin_Gao_CGM_SpeakerInfoRequest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shich\Documents\cgmonline\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F971F7EE-7A1F-4485-B719-BBE956FBCF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ECE43E-9DD5-43C7-AE29-C428C2D901A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Gao</t>
-  </si>
-  <si>
-    <t>2022-02-17 星期四 Beijing 10AM</t>
   </si>
   <si>
     <t>高鑫，男，现哈佛大学、博德研究所David Liu实验室博士后。2014-2019年取得麻省大学医学院博士学位，导师Erik Sontheimer；2020年一月开始在哈佛大学、博德研究所从事博士后研究工作。博士期间开发了结合CRISPR和APEX2的标记DNA特定位点蛋白组学的方法，用于研究基因组空间折叠和基因调控。博后工作侧重于遗传疾病的治疗以及全新基因疗法的开发。</t>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Xin</t>
+  </si>
+  <si>
+    <t>2022-02-17</t>
   </si>
 </sst>
 </file>
@@ -206,11 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,9 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -543,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -551,15 +550,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -575,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -583,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -591,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -599,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -607,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
